--- a/Income/SUI_inc.xlsx
+++ b/Income/SUI_inc.xlsx
@@ -2567,16 +2567,16 @@
         <v>0.1049</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1276</v>
+        <v>0.1104</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1059</v>
+        <v>0.0882</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0871</v>
+        <v>0.0695</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.128</v>
+        <v>0.1101</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.1197</v>
@@ -2694,16 +2694,16 @@
         <v>0.0937</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.1154</v>
+        <v>0.1155</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.1003</v>
+        <v>0.1004</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.0854</v>
+        <v>0.0855</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.1267</v>
+        <v>0.1268</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.1139</v>
@@ -2821,16 +2821,16 @@
         <v>0.0638</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.1588</v>
+        <v>0.158</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.1826</v>
+        <v>0.1818</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.1742</v>
+        <v>0.1734</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-0.0238</v>
+        <v>-0.0247</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>-0.343</v>
@@ -3964,16 +3964,16 @@
         <v>0.4002</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.4198</v>
+        <v>0.419</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.4085</v>
+        <v>0.4077</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.3842</v>
+        <v>0.3834</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.378</v>
+        <v>0.3772</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.3723</v>
